--- a/biology/Botanique/Exploitation_forestière_en_Russie/Exploitation_forestière_en_Russie.xlsx
+++ b/biology/Botanique/Exploitation_forestière_en_Russie/Exploitation_forestière_en_Russie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Exploitation_foresti%C3%A8re_en_Russie</t>
+          <t>Exploitation_forestière_en_Russie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'exploitation forestière - est la principale branche de l'industrie du bois, comprenant l'abattage du bois, son transport et exportation, ainsi que la transformation primaire, la transformation partielle des grumes, et l'emploi des sous-produits[1]. Elle occupait une place importante dans l'économie nationale de l'ex-URSS[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'exploitation forestière - est la principale branche de l'industrie du bois, comprenant l'abattage du bois, son transport et exportation, ainsi que la transformation primaire, la transformation partielle des grumes, et l'emploi des sous-produits. Elle occupait une place importante dans l'économie nationale de l'ex-URSS.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Exploitation_foresti%C3%A8re_en_Russie</t>
+          <t>Exploitation_forestière_en_Russie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jusqu'au XXe siècle, l'exploitation forestière en Russie était réalisée à petite échelle, les opérations d'abattage et de retrait du bois étant principalement manuelles.
-À la suite de la révolution d'Octobre, l'industrie forestière a été presque ruinée et il y eut une importante pénurie de combustible dans le pays, si bien que jusqu'en 1922, c'est l'exploitation du bois de chauffage qui a prédominé. Plus tard, il y a eu un essor de l'exploitation forestière : en 1972, l'URSS était la première dans le monde en termes de transport de bois. Dans le même temps, le processus d'exploitation forestière a été contraint de remplir diverses exigences de gestion : délimiter des zones d'abattage normalisées ; préserver les sous-bois et les jeunes pousses ; préserver des spécimens reproducteurs ; éliminer les résidus d'abattage et autres mesures visant à restaurer la forêt[2].
+À la suite de la révolution d'Octobre, l'industrie forestière a été presque ruinée et il y eut une importante pénurie de combustible dans le pays, si bien que jusqu'en 1922, c'est l'exploitation du bois de chauffage qui a prédominé. Plus tard, il y a eu un essor de l'exploitation forestière : en 1972, l'URSS était la première dans le monde en termes de transport de bois. Dans le même temps, le processus d'exploitation forestière a été contraint de remplir diverses exigences de gestion : délimiter des zones d'abattage normalisées ; préserver les sous-bois et les jeunes pousses ; préserver des spécimens reproducteurs ; éliminer les résidus d'abattage et autres mesures visant à restaurer la forêt.
 De 1927 au milieu des années cinquante, la principale exploitation forestière a été effectuée dans le nord et le nord-ouest de la partie européenne de l'URSS, ce qui a conduit à une réduction tangible des ressources forestières dans les zones d'abattage intensif. Par la suite, l'exploitation forestière s'est largement développée en Sibérie et en Extrême-Orient, ce qui a conduit à une diminution de la part de la déforestation dans la partie européenne de l'URSS: par exemple, en 1972, la région économique du Nord-Ouest représentait 24,9 % du volume total de l'exploitation forestière et la région de la Sibérie orientale, 16,9 %, Oural - 15,0 %, Extrême-Orient - 8,0 %, Sibérie occidentale - 7,8 %, Volgo-Vyatka - 7,7 %, Centre - 7,5 %. En outre, le développement de nouvelles forêts dans le Nord-Ouest, la Sibérie et l'Extrême-Orient a conduit à la nécessité de développer les infrastructures de ces régions et de construire un réseau de grands chemins de transport ferroviaire à large voie pour transporter le bois.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Exploitation_foresti%C3%A8re_en_Russie</t>
+          <t>Exploitation_forestière_en_Russie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En général, l'industrie forestière comprend plusieurs secteurs d'activité[1] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En général, l'industrie forestière comprend plusieurs secteurs d'activité : 
 l'exploitation forestière par abattage ;
 care du bois, pour la production de résine et ses dérivés ;
 flottage du bois ;
